--- a/TestInput/InputSheet.xlsx
+++ b/TestInput/InputSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="14850" windowHeight="4500"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="16440" windowHeight="4020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MasterTestCases" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="SupplierCreation" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1:G7"/>
 </workbook>
 </file>
 
@@ -740,7 +741,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -800,8 +801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
